--- a/biology/Microbiologie/Bacillaceae/Bacillaceae.xlsx
+++ b/biology/Microbiologie/Bacillaceae/Bacillaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Bacillaceae sont une famille de bactéries gram-positives hétérotrophes, pouvant être cultivé en anaérobiose, sporulées et catalase positives[2]. Cette famille appartient à l'ordre des Caryophanales. Les Bacillaceae mobiles sont caractérisés par un flagelle péritriche. Certains Bacillaceae sont aérobie stricts, tandis que d'autres peuvent être aérobie facultatifs. Certaines espèces de Bacillus sont connus comme pathogène pour l'Homme.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Bacillaceae sont une famille de bactéries gram-positives hétérotrophes, pouvant être cultivé en anaérobiose, sporulées et catalase positives. Cette famille appartient à l'ordre des Caryophanales. Les Bacillaceae mobiles sont caractérisés par un flagelle péritriche. Certains Bacillaceae sont aérobie stricts, tandis que d'autres peuvent être aérobie facultatifs. Certaines espèces de Bacillus sont connus comme pathogène pour l'Homme.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrite en 1895 par Alfred Fischer, cette famille a longtemps été placée dans l'ordre des Bacillales avant d'être reclassée dans celle des Caryophanales[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrite en 1895 par Alfred Fischer, cette famille a longtemps été placée dans l'ordre des Bacillales avant d'être reclassée dans celle des Caryophanales.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de cette famille bactérienne est la suivante : Ba.cil.la’ce.ae. L. masc. n. Bacillus, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe définissant une famille; N.L. fem. pl. n. Bacillaceae, la famille des Bacillus[3].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette famille bactérienne est la suivante : Ba.cil.la’ce.ae. L. masc. n. Bacillus, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe définissant une famille; N.L. fem. pl. n. Bacillaceae, la famille des Bacillus.
 </t>
         </is>
       </c>
@@ -574,9 +593,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (14 décembre 2019)[1] (à mettre à jour avec LPSN):
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (14 décembre 2019) (à mettre à jour avec LPSN):
 genre Aeribacillus Miñana-Galbis &amp; al., 2010
 genre Alkalibacillus Jeon &amp; al., 2005
 genre Allobacillus Sheu &amp; al., 2011
